--- a/CSharp/NetFramework/OpenCV/Images/ColorChart.xlsx
+++ b/CSharp/NetFramework/OpenCV/Images/ColorChart.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a6d66238df90d6d/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isa0_\source\repos\IsaoLib\CSharp\NetFramework\OpenCV\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{AB8BF957-5296-471E-AF20-389CEF3106C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7CDCA6B-D93D-4D11-AE61-E0EEB3C4C5CD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B1C6DF-B081-44AE-B72F-E2B970FA7333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="3345" windowWidth="21270" windowHeight="15705" activeTab="3" xr2:uid="{9874C051-4BF5-4DF0-A4FA-19D27BE82E01}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{9874C051-4BF5-4DF0-A4FA-19D27BE82E01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -2545,6 +2546,427 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>83958</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19834</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>143204</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29AF3E47-BB25-47E1-96D4-69CF1AD171DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="445908" y="314324"/>
+          <a:ext cx="1745626" cy="733755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>64908</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>71970</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0BC8E7C-D2E2-4DF4-8464-10413B2E09FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="426858" y="1266824"/>
+          <a:ext cx="2754492" cy="1157821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>36333</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>110102</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A4DBF0-B542-46A2-9357-DAA8B9AD9E1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="398283" y="2657474"/>
+          <a:ext cx="3411717" cy="1434078"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>26808</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>121597</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D097C7D-47C1-4F1C-8AF8-0D35E970A1F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="388758" y="4343399"/>
+          <a:ext cx="4164192" cy="1750373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>36333</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>116605</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31C9EF95-31A7-49EA-B5A3-CD3AFDEFC31B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5103633" y="3009899"/>
+          <a:ext cx="7319272" cy="3076576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>150632</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>160988</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A813B671-9CEE-4D61-8235-D8E3182D4110}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="331607" y="6305548"/>
+          <a:ext cx="10784067" cy="4532965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>48409</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>124155</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB98EBC-2396-4FDC-96B9-C17AEEA7785A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="295275"/>
+          <a:ext cx="5620534" cy="2362530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F468C979-6AD4-891A-21A1-B258DB6D0DA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="225136" y="121227"/>
+          <a:ext cx="11897591" cy="10650682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:alpha val="69000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3544,7 +3966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA1876F-B1B7-4676-A9BE-B5E46C451F0C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="BK73" sqref="BK73"/>
     </sheetView>
   </sheetViews>
@@ -3554,4 +3976,21 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EECE16-8323-4B2B-A653-E9D761062635}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BK67" sqref="BK67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/CSharp/NetFramework/OpenCV/Images/ColorChart.xlsx
+++ b/CSharp/NetFramework/OpenCV/Images/ColorChart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isa0_\source\repos\IsaoLib\CSharp\NetFramework\OpenCV\Images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isa0_\source\repos\IsaoOhnuki\IsaoLib\CSharp\NetFramework\OpenCV\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B1C6DF-B081-44AE-B72F-E2B970FA7333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388114DF-D332-47A7-976E-8D9CA8F4CC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{9874C051-4BF5-4DF0-A4FA-19D27BE82E01}"/>
+    <workbookView xWindow="825" yWindow="3345" windowWidth="21270" windowHeight="15705" activeTab="5" xr2:uid="{9874C051-4BF5-4DF0-A4FA-19D27BE82E01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -2967,6 +2968,61 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>324251</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133751</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6CD9875-BC7D-0F62-E75B-7C79616A335F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="2135329">
+          <a:off x="2247900" y="1057275"/>
+          <a:ext cx="2876951" cy="2876951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3982,7 +4038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EECE16-8323-4B2B-A653-E9D761062635}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BK67" sqref="BK67"/>
     </sheetView>
   </sheetViews>
@@ -3993,4 +4049,20 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52F0640-5B23-412E-8983-96AD7B422E63}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>